--- a/Dicionario de Dados ComercialDC0191.xlsx
+++ b/Dicionario de Dados ComercialDC0191.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.vsantos4\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C15C080-2216-48F1-AC99-61CE058C7FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CE38C5-2A1D-4F03-AF3C-AD68813C57BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="735" windowWidth="28800" windowHeight="13770" xr2:uid="{7E0F8664-BFA7-46BA-9EB8-3112C26A1DBE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E0F8664-BFA7-46BA-9EB8-3112C26A1DBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="110">
   <si>
     <t>Clientes</t>
   </si>
@@ -129,9 +129,6 @@
     <t>senha</t>
   </si>
   <si>
-    <t>nivel</t>
-  </si>
-  <si>
     <t>varchar(32)</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>FK(id Produtos), NN</t>
   </si>
   <si>
-    <t>Campo codbar alterado para NN</t>
-  </si>
-  <si>
     <t>idcli_ped</t>
   </si>
   <si>
@@ -204,9 +198,6 @@
     <t>idprod</t>
   </si>
   <si>
-    <t>idusers</t>
-  </si>
-  <si>
     <t>idped</t>
   </si>
   <si>
@@ -289,6 +280,90 @@
   </si>
   <si>
     <t>idtipo_pag</t>
+  </si>
+  <si>
+    <t>idnv</t>
+  </si>
+  <si>
+    <t>varchar(45)</t>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+  </si>
+  <si>
+    <t>Endereços</t>
+  </si>
+  <si>
+    <t>Niveis</t>
+  </si>
+  <si>
+    <t>idend</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>logradouro</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>bairro</t>
+  </si>
+  <si>
+    <t>complemento</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>idnv_user</t>
+  </si>
+  <si>
+    <t>FK(idnv Niveis),NN</t>
+  </si>
+  <si>
+    <t>uf</t>
+  </si>
+  <si>
+    <t>char(2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NN </t>
+  </si>
+  <si>
+    <t>iduser</t>
+  </si>
+  <si>
+    <t>char(8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Telefones</t>
+  </si>
+  <si>
+    <t>idtel</t>
+  </si>
+  <si>
+    <t>idcli_tel</t>
+  </si>
+  <si>
+    <t>idcli_end</t>
+  </si>
+  <si>
+    <t>FK(idcli Clientes),NN</t>
   </si>
 </sst>
 </file>
@@ -342,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,8 +442,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -504,7 +585,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -513,24 +594,360 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -544,19 +961,74 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -566,10 +1038,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,6 +1070,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FF0A0EB6"/>
     </mruColors>
   </colors>
@@ -891,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6548E8EA-D2B4-40AC-8400-748F2669AB2F}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,10 +1394,12 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,714 +1409,973 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="B4" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="59" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    </row>
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="56" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="69"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="F13" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    </row>
+    <row r="19" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="B20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="48"/>
+    </row>
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="11"/>
+      <c r="D22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="A23" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="43"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="11" t="s">
+      <c r="B26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G26" s="11"/>
+      <c r="D26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="A27" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="66"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>82</v>
+      <c r="G28" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>47</v>
+      <c r="C30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="27"/>
+      <c r="A31" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="D32" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9" t="s">
+      <c r="F33" s="41"/>
+      <c r="G33" s="34"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="D40" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
+      <c r="C41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
+      <c r="B42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="66"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I44" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="J44" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="L44" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="K45" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="L45" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A35:G35"/>
+  <mergeCells count="12">
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
     <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>